--- a/data/trans_bre/P16B97-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B97-Provincia-trans_bre.xlsx
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,46</t>
+          <t>0,0; 18,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,67</t>
+          <t>0,0; 21,97</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 0,0</t>
+          <t>-25,35; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 0,0</t>
+          <t>-25,35; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 0,0</t>
+          <t>-22,14; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 0,0</t>
+          <t>-9,1; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 0,0</t>
+          <t>-13,62; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 0,0</t>
+          <t>-22,14; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 0,0</t>
+          <t>-9,1; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 0,0</t>
+          <t>-13,62; 0,0</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 0,0</t>
+          <t>-24,09; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 0,0</t>
+          <t>-24,09; 0,0</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,55</t>
+          <t>0,0; 14,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,87</t>
+          <t>0,0; 16,56</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1127,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 5,57</t>
+          <t>-2,96; 5,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,33; -1,62</t>
+          <t>-15,29; -1,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 6,0</t>
+          <t>-2,97; 5,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,33; -1,62</t>
+          <t>-15,29; -1,57</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,0</t>
+          <t>-8,02; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,0</t>
+          <t>-8,02; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,0</t>
+          <t>-4,91; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,32</t>
+          <t>-2,22; 0,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,91</t>
+          <t>-3,17; 0,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,0</t>
+          <t>-4,91; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,32</t>
+          <t>-2,23; 0,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 0,93</t>
+          <t>-3,21; 0,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B97-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B97-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,02</t>
+          <t>0,0; 15,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,97</t>
+          <t>0,0; 19,0</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 0,0</t>
+          <t>-24,92; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 0,0</t>
+          <t>-24,92; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 0,0</t>
+          <t>-22,97; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 0,0</t>
+          <t>-7,23; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 0,0</t>
+          <t>-12,99; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 0,0</t>
+          <t>-22,97; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 0,0</t>
+          <t>-7,23; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 0,0</t>
+          <t>-12,99; 0,0</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 0,0</t>
+          <t>-26,21; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 0,0</t>
+          <t>-26,21; 0,0</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,21</t>
+          <t>0,0; 17,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,56</t>
+          <t>0,0; 20,99</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1127,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 5,27</t>
+          <t>-4,08; 5,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,29; -1,57</t>
+          <t>-14,59; -1,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 5,79</t>
+          <t>-4,08; 5,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,29; -1,57</t>
+          <t>-14,59; -1,55</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 0,0</t>
+          <t>-8,32; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 0,0</t>
+          <t>-8,32; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,0</t>
+          <t>-5,27; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,46</t>
+          <t>-2,34; 0,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,97</t>
+          <t>-3,35; 0,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,0</t>
+          <t>-5,27; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,46</t>
+          <t>-2,33; 0,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,98</t>
+          <t>-3,37; 0,88</t>
         </is>
       </c>
     </row>
